--- a/CA/JIRA/PowerBI Input/ONE_A 7_5 Product Defect Numbers by Release and Component cf v1-2 130320.xlsx
+++ b/CA/JIRA/PowerBI Input/ONE_A 7_5 Product Defect Numbers by Release and Component cf v1-2 130320.xlsx
@@ -74,9 +74,6 @@
     <t>Watchlist Manager</t>
   </si>
   <si>
-    <t>Workflow Configuator</t>
-  </si>
-  <si>
     <t>Total Defects</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Base Platform</t>
+  </si>
+  <si>
+    <t>Workflow Configurator</t>
   </si>
 </sst>
 </file>
@@ -658,19 +658,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,10 +676,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,22 +1091,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="29">
         <v>8</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" s="28">
         <v>2</v>
@@ -1345,86 +1345,86 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="41">
+        <v>8</v>
+      </c>
+      <c r="B12" s="40">
         <v>88</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41">
+      <c r="C12" s="41"/>
+      <c r="D12" s="40">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="41">
+      <c r="E12" s="41"/>
+      <c r="F12" s="40">
         <v>13</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="37">
+        <v>9</v>
+      </c>
+      <c r="B13" s="43">
         <v>0.82</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="37">
+      <c r="C13" s="44"/>
+      <c r="D13" s="43">
         <v>6.1403508771929821E-2</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37">
+      <c r="E13" s="44"/>
+      <c r="F13" s="43">
         <v>0.12</v>
       </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="39">
+        <v>10</v>
+      </c>
+      <c r="B14" s="36">
         <v>0.8</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="39">
+      <c r="C14" s="37"/>
+      <c r="D14" s="36">
         <v>0.05</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="39">
+      <c r="E14" s="37"/>
+      <c r="F14" s="36">
         <v>0.15</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="43">
+        <v>11</v>
+      </c>
+      <c r="B15" s="38">
         <v>0.02</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="43">
+      <c r="C15" s="39"/>
+      <c r="D15" s="38">
         <v>-1.1403508771929818E-2</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="43">
+      <c r="E15" s="39"/>
+      <c r="F15" s="38">
         <v>0.03</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
